--- a/data/excel_files/FormattedFeb2023.xlsx
+++ b/data/excel_files/FormattedFeb2023.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -52,18 +52,6 @@
   </si>
   <si>
     <t>CouponsMand</t>
-  </si>
-  <si>
-    <t>Coupon 15</t>
-  </si>
-  <si>
-    <t>Coupon 20</t>
-  </si>
-  <si>
-    <t>Coupon 25</t>
-  </si>
-  <si>
-    <t>Coupon 30</t>
   </si>
   <si>
     <t>Acad</t>
@@ -348,7 +336,7 @@
   <dimension ref="A1:L113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="L1" sqref="I1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -376,20 +364,10 @@
         <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="I1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
@@ -405,7 +383,7 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -432,7 +410,7 @@
         <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -459,7 +437,7 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -486,7 +464,7 @@
         <v>158</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -513,7 +491,7 @@
         <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -540,7 +518,7 @@
         <v>169</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -567,7 +545,7 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -594,7 +572,7 @@
         <v>154</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -621,7 +599,7 @@
         <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -648,7 +626,7 @@
         <v>177</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -675,7 +653,7 @@
         <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -702,7 +680,7 @@
         <v>162</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -729,7 +707,7 @@
         <v>92</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -756,7 +734,7 @@
         <v>182</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -783,7 +761,7 @@
         <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -810,7 +788,7 @@
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -837,7 +815,7 @@
         <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -864,7 +842,7 @@
         <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -891,7 +869,7 @@
         <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -918,7 +896,7 @@
         <v>185</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -945,7 +923,7 @@
         <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -972,7 +950,7 @@
         <v>211</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -999,7 +977,7 @@
         <v>194</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1026,7 +1004,7 @@
         <v>197</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1053,7 +1031,7 @@
         <v>160</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1080,7 +1058,7 @@
         <v>272</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1107,7 +1085,7 @@
         <v>192</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1134,7 +1112,7 @@
         <v>173</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1161,7 +1139,7 @@
         <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1185,7 +1163,7 @@
         <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1212,7 +1190,7 @@
         <v>140</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1239,7 +1217,7 @@
         <v>310</v>
       </c>
       <c r="E33" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1266,7 +1244,7 @@
         <v>142</v>
       </c>
       <c r="E34" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1293,7 +1271,7 @@
         <v>226</v>
       </c>
       <c r="E35" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1320,7 +1298,7 @@
         <v>175</v>
       </c>
       <c r="E36" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1347,7 +1325,7 @@
         <v>205</v>
       </c>
       <c r="E37" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1374,7 +1352,7 @@
         <v>136</v>
       </c>
       <c r="E38" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1401,7 +1379,7 @@
         <v>170</v>
       </c>
       <c r="E39" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1428,7 +1406,7 @@
         <v>108</v>
       </c>
       <c r="E40" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1455,7 +1433,7 @@
         <v>210</v>
       </c>
       <c r="E41" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1482,7 +1460,7 @@
         <v>106</v>
       </c>
       <c r="E42" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -1509,7 +1487,7 @@
         <v>224</v>
       </c>
       <c r="E43" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -1536,7 +1514,7 @@
         <v>82</v>
       </c>
       <c r="E44" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -1563,7 +1541,7 @@
         <v>108</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -1590,7 +1568,7 @@
         <v>101</v>
       </c>
       <c r="E46" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -1617,7 +1595,7 @@
         <v>106</v>
       </c>
       <c r="E47" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -1644,7 +1622,7 @@
         <v>70</v>
       </c>
       <c r="E48" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -1671,7 +1649,7 @@
         <v>210</v>
       </c>
       <c r="E49" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -1698,7 +1676,7 @@
         <v>92</v>
       </c>
       <c r="E50" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1725,7 +1703,7 @@
         <v>223</v>
       </c>
       <c r="E51" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1752,7 +1730,7 @@
         <v>209</v>
       </c>
       <c r="E52" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1779,7 +1757,7 @@
         <v>233</v>
       </c>
       <c r="E53" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -1806,7 +1784,7 @@
         <v>159</v>
       </c>
       <c r="E54" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1833,7 +1811,7 @@
         <v>254</v>
       </c>
       <c r="E55" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -1860,7 +1838,7 @@
         <v>151</v>
       </c>
       <c r="E56" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -1887,7 +1865,7 @@
         <v>149</v>
       </c>
       <c r="E57" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -1914,7 +1892,7 @@
         <v>133</v>
       </c>
       <c r="E58" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -1941,7 +1919,7 @@
         <v>212</v>
       </c>
       <c r="E59" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -1965,7 +1943,7 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -1992,7 +1970,7 @@
         <v>263</v>
       </c>
       <c r="E61" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2019,7 +1997,7 @@
         <v>151</v>
       </c>
       <c r="E62" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2046,7 +2024,7 @@
         <v>211</v>
       </c>
       <c r="E63" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2073,7 +2051,7 @@
         <v>130</v>
       </c>
       <c r="E64" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2100,7 +2078,7 @@
         <v>187</v>
       </c>
       <c r="E65" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2127,7 +2105,7 @@
         <v>135</v>
       </c>
       <c r="E66" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2154,7 +2132,7 @@
         <v>163</v>
       </c>
       <c r="E67" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2181,7 +2159,7 @@
         <v>85</v>
       </c>
       <c r="E68" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2208,7 +2186,7 @@
         <v>145</v>
       </c>
       <c r="E69" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -2235,7 +2213,7 @@
         <v>90</v>
       </c>
       <c r="E70" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -2262,7 +2240,7 @@
         <v>166</v>
       </c>
       <c r="E71" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -2289,7 +2267,7 @@
         <v>65</v>
       </c>
       <c r="E72" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -2316,7 +2294,7 @@
         <v>67</v>
       </c>
       <c r="E73" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -2343,7 +2321,7 @@
         <v>67</v>
       </c>
       <c r="E74" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -2370,7 +2348,7 @@
         <v>108</v>
       </c>
       <c r="E75" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -2397,7 +2375,7 @@
         <v>67</v>
       </c>
       <c r="E76" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -2424,7 +2402,7 @@
         <v>190</v>
       </c>
       <c r="E77" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -2451,7 +2429,7 @@
         <v>122</v>
       </c>
       <c r="E78" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -2478,7 +2456,7 @@
         <v>220</v>
       </c>
       <c r="E79" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2505,7 +2483,7 @@
         <v>205</v>
       </c>
       <c r="E80" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2532,7 +2510,7 @@
         <v>224</v>
       </c>
       <c r="E81" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -2559,7 +2537,7 @@
         <v>152</v>
       </c>
       <c r="E82" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2586,7 +2564,7 @@
         <v>244</v>
       </c>
       <c r="E83" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -2613,7 +2591,7 @@
         <v>191</v>
       </c>
       <c r="E84" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -2640,7 +2618,7 @@
         <v>143</v>
       </c>
       <c r="E85" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2667,7 +2645,7 @@
         <v>160</v>
       </c>
       <c r="E86" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2694,7 +2672,7 @@
         <v>200</v>
       </c>
       <c r="E87" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2721,7 +2699,7 @@
         <v>139</v>
       </c>
       <c r="E88" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2748,7 +2726,7 @@
         <v>282</v>
       </c>
       <c r="E89" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2775,7 +2753,7 @@
         <v>133</v>
       </c>
       <c r="E90" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2802,7 +2780,7 @@
         <v>200</v>
       </c>
       <c r="E91" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2829,7 +2807,7 @@
         <v>143</v>
       </c>
       <c r="E92" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2856,7 +2834,7 @@
         <v>159</v>
       </c>
       <c r="E93" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2883,7 +2861,7 @@
         <v>110</v>
       </c>
       <c r="E94" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -2910,7 +2888,7 @@
         <v>156</v>
       </c>
       <c r="E95" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -2937,7 +2915,7 @@
         <v>132</v>
       </c>
       <c r="E96" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -2964,7 +2942,7 @@
         <v>205</v>
       </c>
       <c r="E97" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2991,7 +2969,7 @@
         <v>126</v>
       </c>
       <c r="E98" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -3018,7 +2996,7 @@
         <v>243</v>
       </c>
       <c r="E99" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -3045,7 +3023,7 @@
         <v>123</v>
       </c>
       <c r="E100" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -3072,7 +3050,7 @@
         <v>154</v>
       </c>
       <c r="E101" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -3099,7 +3077,7 @@
         <v>123</v>
       </c>
       <c r="E102" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -3126,7 +3104,7 @@
         <v>140</v>
       </c>
       <c r="E103" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -3153,7 +3131,7 @@
         <v>110</v>
       </c>
       <c r="E104" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -3180,7 +3158,7 @@
         <v>221</v>
       </c>
       <c r="E105" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -3207,7 +3185,7 @@
         <v>137</v>
       </c>
       <c r="E106" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -3234,7 +3212,7 @@
         <v>170</v>
       </c>
       <c r="E107" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -3261,7 +3239,7 @@
         <v>207</v>
       </c>
       <c r="E108" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -3288,7 +3266,7 @@
         <v>157</v>
       </c>
       <c r="E109" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -3315,7 +3293,7 @@
         <v>103</v>
       </c>
       <c r="E110" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -3342,7 +3320,7 @@
         <v>177</v>
       </c>
       <c r="E111" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -3369,7 +3347,7 @@
         <v>175</v>
       </c>
       <c r="E112" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -3396,7 +3374,7 @@
         <v>118</v>
       </c>
       <c r="E113" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F113">
         <v>0</v>
